--- a/export-revenue.xlsx
+++ b/export-revenue.xlsx
@@ -25,7 +25,7 @@
     <t>#` Ngày lập báo cáo: ${today}</t>
   </si>
   <si>
-    <t>Báo cáo tổng doanh thu theo 12 tháng</t>
+    <t>#` Báo cáo tổng doanh thu năm ${year_stats}</t>
   </si>
   <si>
     <t>Tháng 1</t>
